--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="800" windowWidth="36860" windowHeight="18580" tabRatio="500"/>
+    <workbookView xWindow="9880" yWindow="4140" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
   <si>
     <t>effect1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,10 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给单攻卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d_2_o(e)</t>
   </si>
   <si>
@@ -296,6 +292,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>effect500_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect600_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect600_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect700_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect701_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰与爆炸合成一起，做了冰箭己方效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电被打效果缩小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连光加了callback，并且加了音效，攻击特效要放在被打特效上方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟三连光同样的改点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加了己方效果，可以与毒雾效果一起发出就行，另外加了音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加了被打效果与音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1月2日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加了callback点调用被打与伤害数值特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>effect3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,63 +360,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect500_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect600_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect600_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect700_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect701_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰与爆炸合成一起，做了冰箭己方效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电被打效果缩小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三连光加了callback，并且加了音效，攻击特效要放在被打特效上方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟三连光同样的改点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加了己方效果，可以与毒雾效果一起发出就行，另外加了音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加了被打效果与音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月2日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加了callback点调用被打与伤害数值特效</t>
+    <t>a_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_2_o(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_2_o(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法阵封印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五段拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光波连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四刀光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分身斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect601_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect601_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect802</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -368,7 +464,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -392,6 +488,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00D502"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -410,17 +531,267 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="125">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -750,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -793,365 +1164,829 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="K4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>300</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>301</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
+        <v>400</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>401</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="4">
+        <v>402</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="4">
+        <v>403</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
+        <v>500</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="K18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4">
+        <v>501</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4">
+        <v>502</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
+        <v>600</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="K22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4">
+        <v>601</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
+        <v>700</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
+        <v>701</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
+        <v>800</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10">
-        <v>300</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11">
-        <v>301</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>400</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2">
+        <v>801</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="K29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="4">
+        <v>802</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14">
-        <v>401</v>
-      </c>
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="F30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="4">
+        <v>803</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16">
-        <v>500</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="4">
+        <v>804</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18">
-        <v>600</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F32" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="4">
+        <v>805</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="K18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20">
-        <v>700</v>
-      </c>
-      <c r="B20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21">
-        <v>701</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H21" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23">
-        <v>800</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-      <c r="F23" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="F33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="H23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24">
-        <v>801</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="H33" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K24" t="s">
-        <v>83</v>
-      </c>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="4140" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="17780" yWindow="1820" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="118">
   <si>
     <t>effect1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,42 +316,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰与爆炸合成一起，做了冰箭己方效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电被打效果缩小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三连光加了callback，并且加了音效，攻击特效要放在被打特效上方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟三连光同样的改点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加了己方效果，可以与毒雾效果一起发出就行，另外加了音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加了被打效果与音效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1月2日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加了callback点调用被打与伤害数值特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,6 +324,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>effect402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>a_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -400,6 +368,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>effect501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>雷云</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,6 +408,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>effect802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>effect803</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -448,15 +424,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect802</t>
+    <t>effect4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect5_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect6_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect6_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炮仗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect7_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狼牙棒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +496,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -508,7 +540,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF00D502"/>
+      <color rgb="FF40D300"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -531,7 +569,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="125">
+  <cellStyleXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -657,8 +695,78 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,8 +774,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="125">
+  <cellStyles count="195">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -730,6 +839,41 @@
     <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -792,6 +936,41 @@
     <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1121,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1138,7 +1317,7 @@
     <col min="11" max="11" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1163,11 +1342,8 @@
       <c r="H1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1194,7 +1370,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1221,13 +1397,13 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1245,120 +1421,177 @@
         <v>20</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="K4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="2">
-        <v>300</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="2">
-        <v>301</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:10">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1369,553 +1602,565 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
+        <v>300</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
+        <v>301</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
         <v>400</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5">
+        <v>401</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="5">
+        <v>402</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5">
+        <v>403</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="G19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>500</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5">
+        <v>501</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="2">
-        <v>401</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D22" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5">
+        <v>502</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="2" t="s">
+      <c r="F23" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="K14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="4">
-        <v>402</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="G23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="5">
+        <v>600</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="5">
+        <v>601</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" s="4" t="s">
+      <c r="G26" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5">
+        <v>700</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5">
+        <v>701</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5">
+        <v>800</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5">
+        <v>801</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5">
+        <v>802</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4">
-        <v>403</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="G33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5">
+        <v>803</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="G34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="5">
+        <v>804</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F35" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="2">
-        <v>500</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="G35" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5">
+        <v>805</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="K18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="4">
-        <v>501</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="4">
-        <v>502</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="2">
-        <v>600</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="K22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="4">
-        <v>601</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="F36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="2">
-        <v>700</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="2">
-        <v>701</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="K26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="2">
-        <v>800</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="2" t="s">
+      <c r="G36" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H36" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="2">
-        <v>801</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="K29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="4">
-        <v>802</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="4">
-        <v>803</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="4">
-        <v>804</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="4">
-        <v>805</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2"/>
@@ -1982,6 +2227,39 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17780" yWindow="1820" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="6940" yWindow="1140" windowWidth="30480" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
   <si>
     <t>effect1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -460,10 +460,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炮仗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect7_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,11 +480,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>刀痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狼牙棒</t>
+    <t>火飞刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆破痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉callback点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1302,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1493,7 +1497,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>104</v>
@@ -1508,10 +1512,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>2</v>
@@ -1520,7 +1524,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>104</v>
@@ -1536,7 +1540,7 @@
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>18</v>
@@ -1561,7 +1565,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>18</v>
@@ -1579,6 +1583,9 @@
         <v>20</v>
       </c>
       <c r="I10" s="4"/>
+      <c r="J10" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6940" yWindow="1140" windowWidth="30480" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="9980" yWindow="640" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="153">
   <si>
     <t>effect1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -492,7 +492,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>去掉callback点</t>
+    <t>给单体技能卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect302_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_4</t>
+  </si>
+  <si>
+    <t>a_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万字佛经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体补血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给金蝉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect503_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect503_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_10_o(_e)_1（2、3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三味真火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给红孩儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect404_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰天雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机三位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给雷震子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect405_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔锁封禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给托塔天王李靖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土遁飞剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给土行孙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半月斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给吴刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日炎拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给日游神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect302_2（3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect702_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect702_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect807_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect807_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect405_2(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect404_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +635,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -555,6 +690,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00C802"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00C402"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -573,7 +722,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="195">
+  <cellStyleXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -769,8 +918,94 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -779,8 +1014,10 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="195">
+  <cellStyles count="281">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -878,6 +1115,49 @@
     <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -975,6 +1255,49 @@
     <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1304,16 +1627,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
@@ -1427,165 +1750,163 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>20</v>
+      <c r="H10" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2"/>
@@ -1647,7 +1968,7 @@
         <v>57</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -1664,112 +1985,114 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="A15" s="6">
+        <v>302</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
         <v>400</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="5">
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="5">
         <v>401</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="5">
-        <v>402</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:10">
       <c r="A19" s="5">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>83</v>
@@ -1777,143 +2100,157 @@
       <c r="H19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="5"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="5">
+        <v>403</v>
+      </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="5">
+    <row r="21" spans="1:10">
+      <c r="A21" s="7">
+        <v>404</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="7">
+        <v>405</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="5">
         <v>500</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D24" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="5">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="5">
         <v>501</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="5">
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="5">
         <v>502</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="5">
-        <v>600</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="5">
-        <v>601</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>35</v>
@@ -1922,233 +2259,227 @@
         <v>29</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+    <row r="27" spans="1:10">
+      <c r="A27" s="7">
+        <v>503</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>130</v>
+      </c>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5">
-        <v>700</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>45</v>
-      </c>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="A29" s="5">
-        <v>701</v>
+        <v>600</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G29" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5">
+        <v>601</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="5">
+        <v>700</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="5">
-        <v>800</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="5">
-        <v>801</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="5">
-        <v>802</v>
-      </c>
-      <c r="B33" s="5"/>
+        <v>701</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C33" s="5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="5">
-        <v>803</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="A34" s="7">
+        <v>702</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>20</v>
+      <c r="F34" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="5">
-        <v>804</v>
-      </c>
+      <c r="A35" s="5"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="5">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="5" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>50</v>
@@ -2159,80 +2490,180 @@
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="5"/>
+      <c r="A37" s="5">
+        <v>801</v>
+      </c>
       <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
+      <c r="C37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="A38" s="5">
+        <v>802</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="A39" s="5">
+        <v>803</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="A40" s="5">
+        <v>804</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="A41" s="5">
+        <v>805</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="A42" s="7">
+        <v>806</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="A43" s="7">
+        <v>807</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
@@ -2267,6 +2698,61 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9980" yWindow="640" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="2880" yWindow="660" windowWidth="28440" windowHeight="17400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="157">
   <si>
     <t>effect1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,10 +527,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a_10_o(_e)_1（2、3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三味真火</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -628,6 +624,26 @@
   </si>
   <si>
     <t>effect404_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_10_1（2、3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +651,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -704,6 +720,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF00C802"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -722,7 +758,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="281">
+  <cellStyleXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1004,8 +1040,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1016,8 +1058,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="281">
+  <cellStyles count="287">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1158,6 +1203,9 @@
     <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1298,6 +1346,9 @@
     <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1629,8 +1680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1992,7 +2043,7 @@
         <v>119</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>120</v>
@@ -2048,7 +2099,9 @@
         <v>32</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5">
@@ -2132,10 +2185,10 @@
         <v>404</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>35</v>
@@ -2144,13 +2197,13 @@
         <v>29</v>
       </c>
       <c r="F21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -2159,27 +2212,30 @@
         <v>405</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>35</v>
+        <v>150</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="I22" s="5"/>
+      <c r="J22" s="1" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="5"/>
@@ -2280,19 +2336,19 @@
         <v>126</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>129</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>130</v>
       </c>
       <c r="I27" s="5"/>
     </row>
@@ -2334,7 +2390,7 @@
       </c>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" ht="21">
       <c r="A30" s="5">
         <v>601</v>
       </c>
@@ -2360,6 +2416,9 @@
         <v>41</v>
       </c>
       <c r="I30" s="5"/>
+      <c r="J30" s="9" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="5"/>
@@ -2399,7 +2458,7 @@
       </c>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:10" ht="21">
       <c r="A33" s="5">
         <v>701</v>
       </c>
@@ -2425,16 +2484,19 @@
         <v>45</v>
       </c>
       <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="7">
         <v>702</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>28</v>
@@ -2443,17 +2505,17 @@
         <v>29</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="H34" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H34" s="6" t="s">
-        <v>140</v>
-      </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:10">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -2464,7 +2526,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:10">
       <c r="A36" s="5">
         <v>800</v>
       </c>
@@ -2489,7 +2551,7 @@
       </c>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10">
       <c r="A37" s="5">
         <v>801</v>
       </c>
@@ -2514,7 +2576,7 @@
       </c>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10">
       <c r="A38" s="5">
         <v>802</v>
       </c>
@@ -2539,7 +2601,7 @@
       </c>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" s="5">
         <v>803</v>
       </c>
@@ -2564,7 +2626,7 @@
       </c>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:10">
       <c r="A40" s="5">
         <v>804</v>
       </c>
@@ -2589,7 +2651,7 @@
       </c>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:10">
       <c r="A41" s="5">
         <v>805</v>
       </c>
@@ -2614,13 +2676,13 @@
       </c>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="7">
         <v>806</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>47</v>
@@ -2629,25 +2691,25 @@
         <v>29</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:10" ht="21">
       <c r="A43" s="7">
         <v>807</v>
       </c>
       <c r="B43" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>28</v>
@@ -2656,17 +2718,20 @@
         <v>29</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>50</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2677,7 +2742,7 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:10">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2688,7 +2753,7 @@
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2699,7 +2764,7 @@
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:10">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2710,7 +2775,7 @@
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
   <si>
     <t>effect1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,6 +644,10 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给加血卡牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -758,8 +762,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="287">
+  <cellStyleXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1062,7 +1072,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="287">
+  <cellStyles count="293">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1206,6 +1216,9 @@
     <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1349,6 +1362,9 @@
     <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1678,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1960,208 +1976,198 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
         <v>300</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
         <v>301</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="6">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="6">
         <v>302</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D17" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H17" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="2">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
         <v>400</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="5">
-        <v>401</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="5">
-        <v>402</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5">
-        <v>403</v>
-      </c>
-      <c r="B20" s="5"/>
+        <v>401</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="C20" s="5" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>33</v>
@@ -2170,152 +2176,152 @@
         <v>29</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
+        <v>402</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="5">
+        <v>403</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="7">
         <v>404</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H23" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="7">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="7">
         <v>405</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="I22" s="5"/>
-      <c r="J22" s="1" t="s">
+      <c r="I24" s="5"/>
+      <c r="J24" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="5">
-        <v>500</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I24" s="5"/>
-    </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5">
-        <v>501</v>
-      </c>
+      <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>38</v>
-      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="5">
-        <v>502</v>
-      </c>
-      <c r="B26" s="5"/>
+        <v>500</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="C26" s="5" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>37</v>
@@ -2326,272 +2332,272 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
+        <v>501</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="5">
+        <v>502</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="7">
         <v>503</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H29" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="5">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="5">
         <v>600</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" ht="21">
-      <c r="A30" s="5">
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" ht="21">
+      <c r="A32" s="5">
         <v>601</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I30" s="5"/>
-      <c r="J30" s="9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="5">
-        <v>700</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="5"/>
+      <c r="J32" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="5">
+        <v>700</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="5">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" ht="21">
+      <c r="A35" s="5">
         <v>701</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H35" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="10" t="s">
+      <c r="I35" s="5"/>
+      <c r="J35" s="10" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="7">
+    <row r="36" spans="1:10">
+      <c r="A36" s="7">
         <v>702</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D36" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G36" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H34" s="6" t="s">
+      <c r="H36" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="5">
-        <v>800</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>20</v>
-      </c>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="5">
-        <v>801</v>
-      </c>
+      <c r="A37" s="5"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="5">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>50</v>
@@ -2603,20 +2609,20 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="5">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>50</v>
@@ -2628,11 +2634,11 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="5">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>47</v>
@@ -2641,7 +2647,7 @@
         <v>29</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>50</v>
@@ -2653,11 +2659,11 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="5">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>47</v>
@@ -2666,7 +2672,7 @@
         <v>29</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>50</v>
@@ -2677,81 +2683,109 @@
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
+        <v>804</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="5">
+        <v>805</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="7">
         <v>806</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F44" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H42" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="7">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" ht="21">
+      <c r="A45" s="7">
         <v>807</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E45" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F45" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G45" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="6" t="s">
+      <c r="H45" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="8" t="s">
+      <c r="I45" s="2"/>
+      <c r="J45" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2"/>
@@ -2818,6 +2852,28 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="660" windowWidth="28440" windowHeight="17400" tabRatio="500"/>
+    <workbookView xWindow="6220" yWindow="600" windowWidth="28440" windowHeight="17400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="164">
   <si>
     <t>effect1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -476,178 +476,202 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>火飞刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆破痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给单体技能卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect302_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_4</t>
+  </si>
+  <si>
+    <t>a_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万字佛经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体补血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给金蝉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect503_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect503_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三味真火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给红孩儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect404_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰天雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机三位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给雷震子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect405_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔锁封禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给托塔天王李靖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土遁飞剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给土行孙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半月斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给吴刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日炎拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给日游神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect302_2（3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect702_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect702_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect807_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect807_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect405_2(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect404_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_10_1（2、3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给加血卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>effect9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火飞刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爪痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆破痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给单体技能卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect302_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_4</t>
-  </si>
-  <si>
-    <t>a_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万字佛经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体补血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给金蝉子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect503_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect503_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三味真火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前排群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给红孩儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect404_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轰天雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机三位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给雷震子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect405_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔锁封禁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给托塔天王李靖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土遁飞剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纵向群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给土行孙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半月斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给吴刚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日炎拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给日游神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect302_2（3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect702_1(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect702_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect807_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect807_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect405_2(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect404_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_10_1（2、3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给加血卡牌</t>
+    <t>effect10_1（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect10_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎光球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect11_1（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect11_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝光圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect12_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect12_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀割</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +679,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -711,20 +735,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF00C802"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00C402"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color rgb="FF00C802"/>
       <name val="宋体"/>
@@ -740,6 +750,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00D702"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -762,7 +779,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="293">
+  <cellStyleXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1056,8 +1073,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1070,9 +1111,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="293">
+  <cellStyles count="317">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1219,6 +1259,18 @@
     <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1365,6 +1417,18 @@
     <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1696,8 +1760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1887,7 +1951,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>104</v>
@@ -1939,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>104</v>
@@ -1955,7 +2019,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -1964,64 +2028,94 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="2">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
+      <c r="B11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
+      <c r="C12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="2">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2" t="s">
+      <c r="B13" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="2"/>
@@ -2030,7 +2124,6 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2075,7 +2168,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -2092,29 +2185,29 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="6">
+      <c r="A17" s="2">
         <v>302</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2155,258 +2248,254 @@
         <v>32</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>401</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>402</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>403</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="7">
+      <c r="A23" s="2">
         <v>404</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="H23" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
+        <v>405</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="7">
-        <v>405</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>150</v>
+      <c r="C24" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="1" t="s">
-        <v>154</v>
-      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="5">
+      <c r="A26" s="2">
         <v>500</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="5"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="5">
+      <c r="A27" s="2">
         <v>501</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="5"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="5">
+      <c r="A28" s="2">
         <v>502</v>
       </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="5"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="7">
+      <c r="A29" s="2">
         <v>503</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="G29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="H29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29" s="5"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="5"/>
@@ -2472,9 +2561,7 @@
         <v>41</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="9" t="s">
-        <v>156</v>
-      </c>
+      <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="5"/>
@@ -2540,252 +2627,248 @@
         <v>45</v>
       </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="10" t="s">
-        <v>155</v>
-      </c>
+      <c r="J35" s="8"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="7">
+      <c r="A36" s="2">
         <v>702</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2">
+        <v>800</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2">
+        <v>801</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2">
+        <v>802</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
+        <v>803</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
+        <v>804</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
+        <v>805</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
+        <v>806</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" ht="21">
+      <c r="A45" s="2">
+        <v>807</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="C45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F36" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="5">
-        <v>800</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G38" s="5" t="s">
+      <c r="F45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="5">
-        <v>801</v>
-      </c>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="5">
-        <v>802</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="5">
-        <v>803</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="5">
-        <v>804</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="5">
-        <v>805</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="7">
-        <v>806</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="7">
-        <v>807</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F45" s="6" t="s">
+      <c r="H45" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>144</v>
-      </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="8" t="s">
-        <v>156</v>
-      </c>
+      <c r="J45" s="6"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -440,14 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect5_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect5_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巨石</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,6 +664,14 @@
   </si>
   <si>
     <t>刀割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect5_1（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect5_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +679,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -761,6 +761,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00E502"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -779,7 +786,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="317">
+  <cellStyleXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1097,8 +1104,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1111,8 +1120,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="317">
+  <cellStyles count="319">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1271,6 +1281,7 @@
     <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1429,6 +1440,7 @@
     <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1760,8 +1772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1908,28 +1920,28 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="4"/>
@@ -1939,10 +1951,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -1951,7 +1963,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>104</v>
@@ -1966,10 +1978,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -1978,7 +1990,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>104</v>
@@ -1994,7 +2006,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -2003,7 +2015,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>104</v>
@@ -2019,7 +2031,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -2028,13 +2040,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>104</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1"/>
@@ -2044,10 +2056,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>2</v>
@@ -2056,13 +2068,13 @@
         <v>3</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2071,10 +2083,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>2</v>
@@ -2083,7 +2095,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>5</v>
@@ -2098,19 +2110,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>5</v>
@@ -2168,7 +2180,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -2189,25 +2201,25 @@
         <v>302</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2332,10 +2344,10 @@
         <v>404</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>35</v>
@@ -2344,13 +2356,13 @@
         <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2359,10 +2371,10 @@
         <v>405</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>77</v>
@@ -2371,13 +2383,13 @@
         <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
@@ -2475,25 +2487,25 @@
         <v>503</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -2634,10 +2646,10 @@
         <v>702</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
@@ -2646,13 +2658,13 @@
         <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -2823,7 +2835,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>47</v>
@@ -2832,13 +2844,13 @@
         <v>29</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I44" s="5"/>
     </row>
@@ -2847,10 +2859,10 @@
         <v>807</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>28</v>
@@ -2859,13 +2871,13 @@
         <v>29</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="6"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
   <si>
     <t>effect1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -268,10 +268,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect701_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect500_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -308,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect701_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect801</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,6 +664,18 @@
   </si>
   <si>
     <t>effect5_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect701_1（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect701_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成三段！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,7 +683,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -749,21 +753,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="12"/>
+      <color rgb="FFFF6600"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF00D702"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00E502"/>
+      <sz val="18"/>
+      <color rgb="FFFF6600"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1107,7 +1105,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1120,7 +1118,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="319">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -1772,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1848,7 +1845,7 @@
         <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1873,7 +1870,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1897,10 +1894,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -1909,10 +1906,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
@@ -1920,28 +1917,28 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="10">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="4"/>
@@ -1951,10 +1948,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -1963,10 +1960,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>6</v>
@@ -1978,10 +1975,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -1990,10 +1987,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -2006,7 +2003,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -2015,10 +2012,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>20</v>
@@ -2031,7 +2028,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -2040,94 +2037,94 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="9">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="C12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="F12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="C13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="F13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="I13" s="2"/>
@@ -2180,7 +2177,7 @@
         <v>57</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -2201,25 +2198,25 @@
         <v>302</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2239,16 +2236,16 @@
         <v>400</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>30</v>
@@ -2270,7 +2267,7 @@
         <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
@@ -2282,7 +2279,7 @@
         <v>34</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>32</v>
@@ -2295,19 +2292,19 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="F21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>32</v>
@@ -2320,7 +2317,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
@@ -2329,10 +2326,10 @@
         <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>32</v>
@@ -2344,10 +2341,10 @@
         <v>404</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>35</v>
@@ -2356,13 +2353,13 @@
         <v>29</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2371,25 +2368,25 @@
         <v>405</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
@@ -2410,10 +2407,10 @@
         <v>500</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>60</v>
@@ -2438,16 +2435,16 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>37</v>
@@ -2463,7 +2460,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>35</v>
@@ -2472,7 +2469,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>37</v>
@@ -2487,25 +2484,25 @@
         <v>503</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -2525,10 +2522,10 @@
         <v>600</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>70</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>35</v>
@@ -2552,10 +2549,10 @@
         <v>601</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>35</v>
@@ -2564,7 +2561,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>40</v>
@@ -2591,7 +2588,7 @@
         <v>700</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>59</v>
@@ -2613,43 +2610,44 @@
       </c>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:10" ht="21">
-      <c r="A35" s="5">
+    <row r="35" spans="1:10" s="8" customFormat="1" ht="21">
+      <c r="A35" s="8">
         <v>701</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="B35" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="E35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I35" s="5"/>
-      <c r="J35" s="8"/>
+      <c r="J35" s="9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>702</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
@@ -2658,13 +2656,13 @@
         <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -2685,7 +2683,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
@@ -2710,7 +2708,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>61</v>
@@ -2735,7 +2733,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>47</v>
@@ -2744,7 +2742,7 @@
         <v>29</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>50</v>
@@ -2760,7 +2758,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>47</v>
@@ -2769,7 +2767,7 @@
         <v>29</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>50</v>
@@ -2785,7 +2783,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>47</v>
@@ -2794,7 +2792,7 @@
         <v>29</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>50</v>
@@ -2810,7 +2808,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
@@ -2819,7 +2817,7 @@
         <v>29</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>50</v>
@@ -2835,7 +2833,7 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>47</v>
@@ -2844,13 +2842,13 @@
         <v>29</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I44" s="5"/>
     </row>
@@ -2859,10 +2857,10 @@
         <v>807</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>28</v>
@@ -2871,13 +2869,13 @@
         <v>29</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>50</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="6"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="168">
   <si>
     <t>effect1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,126 +213,118 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>半月斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>d_2_o(e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半月斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体技能</t>
+  </si>
+  <si>
+    <t>风火轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect300_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect301_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect300_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect301_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect401_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect700_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_7_1(2、3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_8_o(e)_1(2、3、4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect500_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect400_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect401_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect500_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect600_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect600_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect700_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect400_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>d_2_o(e)</t>
-  </si>
-  <si>
-    <t>风火轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect300_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect301_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect300_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect301_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect401_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect700_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_7_1(2、3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_8_o(e)_1(2、3、4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect500_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect400_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect401_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect500_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect600_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect600_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect700_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect400_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_2_o(e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_2_o(e)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -676,6 +668,26 @@
   </si>
   <si>
     <t>修改成三段！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1769,8 +1781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1842,10 +1854,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -1870,7 +1882,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -1894,10 +1906,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -1906,10 +1918,10 @@
         <v>3</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
@@ -1921,10 +1933,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>2</v>
@@ -1933,10 +1945,10 @@
         <v>3</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>17</v>
@@ -1948,10 +1960,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -1960,10 +1972,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>6</v>
@@ -1975,10 +1987,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
@@ -1987,10 +1999,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>17</v>
@@ -2003,7 +2015,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>18</v>
@@ -2012,10 +2024,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>20</v>
@@ -2028,7 +2040,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>18</v>
@@ -2037,13 +2049,13 @@
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1"/>
@@ -2053,10 +2065,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>2</v>
@@ -2065,13 +2077,13 @@
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2080,10 +2092,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>2</v>
@@ -2092,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>5</v>
@@ -2107,19 +2119,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>5</v>
@@ -2144,10 +2156,10 @@
         <v>300</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>21</v>
@@ -2171,13 +2183,13 @@
         <v>301</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>22</v>
@@ -2198,25 +2210,25 @@
         <v>302</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2236,16 +2248,16 @@
         <v>400</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>30</v>
@@ -2264,22 +2276,22 @@
         <v>401</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>29</v>
+      <c r="E20" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>32</v>
@@ -2292,19 +2304,19 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>163</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>32</v>
@@ -2317,7 +2329,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>33</v>
@@ -2326,10 +2338,10 @@
         <v>29</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>32</v>
@@ -2341,25 +2353,25 @@
         <v>404</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
+      <c r="E23" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2368,25 +2380,25 @@
         <v>405</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
@@ -2407,13 +2419,13 @@
         <v>500</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>29</v>
@@ -2435,16 +2447,16 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>37</v>
@@ -2460,7 +2472,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>35</v>
@@ -2469,7 +2481,7 @@
         <v>29</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>37</v>
@@ -2484,25 +2496,25 @@
         <v>503</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -2522,10 +2534,10 @@
         <v>600</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>35</v>
@@ -2549,10 +2561,10 @@
         <v>601</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>35</v>
@@ -2561,7 +2573,7 @@
         <v>29</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>40</v>
@@ -2588,10 +2600,10 @@
         <v>700</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>42</v>
@@ -2615,10 +2627,10 @@
         <v>701</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>28</v>
@@ -2636,7 +2648,7 @@
         <v>45</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2644,10 +2656,10 @@
         <v>702</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>28</v>
@@ -2656,13 +2668,13 @@
         <v>29</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -2683,19 +2695,19 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>20</v>
@@ -2708,19 +2720,19 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>20</v>
@@ -2733,7 +2745,7 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>47</v>
@@ -2742,10 +2754,10 @@
         <v>29</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>20</v>
@@ -2758,7 +2770,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>47</v>
@@ -2767,10 +2779,10 @@
         <v>29</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>20</v>
@@ -2783,7 +2795,7 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>47</v>
@@ -2792,10 +2804,10 @@
         <v>29</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>20</v>
@@ -2808,7 +2820,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
@@ -2817,10 +2829,10 @@
         <v>29</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>20</v>
@@ -2833,22 +2845,22 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>29</v>
+      <c r="E44" s="8" t="s">
+        <v>165</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I44" s="5"/>
     </row>
@@ -2857,10 +2869,10 @@
         <v>807</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>28</v>
@@ -2869,13 +2881,13 @@
         <v>29</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="6"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="600" windowWidth="28440" windowHeight="17400" tabRatio="500"/>
+    <workbookView xWindow="6220" yWindow="600" windowWidth="28440" windowHeight="17400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="卡牌" sheetId="1" r:id="rId1"/>
+    <sheet name="boss" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,69 +20,755 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="194">
+  <si>
+    <t>effect1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_1_o(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色光球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给加血卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能排号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleNode（攻击动作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battleNode（被打动作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适用类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccb(攻击)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccb（被打）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_1_o(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给群攻卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_5_1(2、3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给单体技能卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字补血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补血技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给男补血角色卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红心补血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给女补血角色卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_2_o(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给随机群攻卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_7_1(2、3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给前排群攻卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三连针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给后排群攻卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_9_o(_e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给纵向群攻卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒雾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_2_o(_e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半月斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_2_o(e)</t>
+  </si>
+  <si>
+    <t>风火轮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect300_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect301_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect300_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect301_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect401_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect700_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_7_1(2、3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_8_o(e)_1(2、3、4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect500_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect400_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect401_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect500_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect600_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect600_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect700_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect400_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_2_o(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法阵封印</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩柱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五段拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光波连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四刀光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分身斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect601_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect601_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect804</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect6_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect6_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect7_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火飞刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆破痕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给单体技能卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect302_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_4</t>
+  </si>
+  <si>
+    <t>a_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万字佛经</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体补血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给金蝉子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect503_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect503_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三味真火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给红孩儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect404_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰天雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机三位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给雷震子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect405_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>塔锁封禁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给托塔天王李靖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土遁飞剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给土行孙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect806</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半月斧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给吴刚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日炎拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给日游神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect302_2（3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect702_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect702_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect807_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect807_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect405_2(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect404_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_10_1（2、3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给加血卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect10_1（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect10_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎光球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect11_1（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect11_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝光圈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect12_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect12_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀割</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect5_1（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect5_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect701_1（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect701_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成三段！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能排号</t>
+  </si>
+  <si>
+    <t>ccb(攻击)</t>
+  </si>
+  <si>
+    <t>ccb（被打）</t>
+  </si>
+  <si>
+    <t>battleNode（攻击动作）</t>
+  </si>
+  <si>
+    <t>battleNode（被打动作）</t>
+  </si>
+  <si>
+    <t>技能效果</t>
+  </si>
+  <si>
+    <t>适用类型</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
   <si>
     <t>effect1_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect1_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_1_o(e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色光球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给加血卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能排号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleNode（攻击动作）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battleNode（被打动作）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>适用类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccb(攻击)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccb（被打）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_1_o(e)</t>
+    <t>effect1001_1（2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1001_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给蓝色品质boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1002_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1002_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给紫色品质boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_1003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给金色品质boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -89,605 +776,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给群攻卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_5_1(2、3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给单体技能卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字补血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>补血技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给男补血角色卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红心补血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给女补血角色卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_2_o(e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给随机群攻卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_7_1(2、3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三连光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前排群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给前排群攻卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三连针</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后排群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给后排群攻卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_9_o(_e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲击波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纵向群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给纵向群攻卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒雾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_2_o(_e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半月斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_2_o(e)</t>
-  </si>
-  <si>
-    <t>风火轮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect300_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect301_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect300_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect301_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect401_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect700_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_7_1(2、3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_8_o(e)_1(2、3、4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect500_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect400_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect2_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect401_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect500_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect600_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect600_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect700_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect400_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_2_o(e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙卷风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法阵封印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect502</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熔岩柱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五段拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光波连击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四刀光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分身斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect601_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect601_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect803</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect804</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect805</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect4_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect4_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect6_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect6_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect7_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect7_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫炎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火飞刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爪痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆破痕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给单体技能卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect302_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_4</t>
-  </si>
-  <si>
-    <t>a_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万字佛经</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体补血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给金蝉子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect503_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect503_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三味真火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前排群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给红孩儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect404_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轰天雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机三位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给雷震子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect405_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>塔锁封禁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给托塔天王李靖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土遁飞剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纵向群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给土行孙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect806</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半月斧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给吴刚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日炎拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给日游神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect302_2（3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect702_1(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect702_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect807_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect807_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect405_2(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect404_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_10_1（2、3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给加血卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect10_1（2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect10_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炎光球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect11_1（2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect11_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝光圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect12_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect12_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刀割</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect5_1（2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect5_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect701_1（2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect701_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改成三段！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_8</t>
+    <t>effect1003_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1003_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,7 +792,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -778,6 +875,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00AE01"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -796,7 +907,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="319">
+  <cellStyleXfs count="375">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1116,8 +1227,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1130,8 +1297,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="319">
+  <cellStyles count="375">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1291,6 +1460,34 @@
     <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1450,6 +1647,34 @@
     <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1781,8 +2006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1798,28 +2023,28 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1827,25 +2052,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -1854,25 +2079,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -1882,22 +2107,22 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1906,25 +2131,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4"/>
     </row>
@@ -1933,25 +2158,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="4"/>
     </row>
@@ -1960,25 +2185,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="4"/>
     </row>
@@ -1987,25 +2212,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="4"/>
     </row>
@@ -2015,22 +2240,22 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4"/>
     </row>
@@ -2040,22 +2265,22 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="1"/>
@@ -2065,25 +2290,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2092,25 +2317,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -2119,25 +2344,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I13" s="2"/>
     </row>
@@ -2156,25 +2381,25 @@
         <v>300</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="I15" s="2"/>
     </row>
@@ -2183,25 +2408,25 @@
         <v>301</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="I16" s="2"/>
     </row>
@@ -2210,25 +2435,25 @@
         <v>302</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2248,25 +2473,25 @@
         <v>400</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
@@ -2276,25 +2501,25 @@
         <v>401</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="2"/>
     </row>
@@ -2304,22 +2529,22 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I21" s="2"/>
     </row>
@@ -2329,22 +2554,22 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I22" s="2"/>
     </row>
@@ -2353,25 +2578,25 @@
         <v>404</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2380,25 +2605,25 @@
         <v>405</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
@@ -2419,25 +2644,25 @@
         <v>500</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -2447,22 +2672,22 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="G27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I27" s="2"/>
     </row>
@@ -2472,22 +2697,22 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -2496,25 +2721,25 @@
         <v>503</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="I29" s="2"/>
     </row>
@@ -2534,25 +2759,25 @@
         <v>600</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="I31" s="5"/>
     </row>
@@ -2561,25 +2786,25 @@
         <v>601</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="D32" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="7"/>
@@ -2600,25 +2825,25 @@
         <v>700</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F34" s="5" t="s">
+      <c r="G34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="I34" s="5"/>
     </row>
@@ -2627,28 +2852,28 @@
         <v>701</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>161</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2656,25 +2881,25 @@
         <v>702</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -2695,22 +2920,22 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="H38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I38" s="5"/>
     </row>
@@ -2720,22 +2945,22 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I39" s="5"/>
     </row>
@@ -2745,22 +2970,22 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I40" s="5"/>
     </row>
@@ -2770,22 +2995,22 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I41" s="5"/>
     </row>
@@ -2795,22 +3020,22 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I42" s="5"/>
     </row>
@@ -2820,22 +3045,22 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I43" s="5"/>
     </row>
@@ -2845,22 +3070,22 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="I44" s="5"/>
     </row>
@@ -2869,25 +3094,25 @@
         <v>807</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="F45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="6"/>
@@ -2979,6 +3204,141 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="11">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="11">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="11">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I4" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="600" windowWidth="28440" windowHeight="17400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7140" yWindow="1840" windowWidth="28440" windowHeight="17400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="209">
   <si>
     <t>effect1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,14 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect503_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect503_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三味真火</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -772,10 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>effect1003_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -785,6 +773,78 @@
   </si>
   <si>
     <t>effect1003_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百拳重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给紫色品质boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect503_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect503_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改成了三段！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1801_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1801_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_1801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_1801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1800_1(2、3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1800_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给蓝色品质boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -792,7 +852,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -889,6 +949,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00CA02"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00C802"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -907,7 +995,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="375">
+  <cellStyleXfs count="383">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1283,8 +1371,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1299,8 +1395,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="375">
+  <cellStyles count="383">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1488,6 +1588,10 @@
     <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1675,6 +1779,10 @@
     <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2006,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2052,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -2158,10 +2266,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>1</v>
@@ -2265,7 +2373,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
@@ -2290,10 +2398,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>1</v>
@@ -2302,13 +2410,13 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -2317,10 +2425,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>1</v>
@@ -2329,7 +2437,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>4</v>
@@ -2344,19 +2452,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
@@ -2438,7 +2546,7 @@
         <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>112</v>
@@ -2510,7 +2618,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>33</v>
@@ -2535,7 +2643,7 @@
         <v>74</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>76</v>
@@ -2578,25 +2686,25 @@
         <v>404</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="I23" s="2"/>
     </row>
@@ -2605,10 +2713,10 @@
         <v>405</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>73</v>
@@ -2617,13 +2725,13 @@
         <v>28</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
@@ -2716,32 +2824,35 @@
       </c>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2">
+    <row r="29" spans="1:10" ht="21">
+      <c r="A29" s="13">
         <v>503</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="G29" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="H29" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="I29" s="2"/>
+      <c r="J29" s="14" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="5"/>
@@ -2852,10 +2963,10 @@
         <v>701</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>27</v>
@@ -2873,7 +2984,7 @@
         <v>44</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2881,10 +2992,10 @@
         <v>702</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>27</v>
@@ -2893,13 +3004,13 @@
         <v>28</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="I36" s="5"/>
     </row>
@@ -2926,7 +3037,7 @@
         <v>46</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>47</v>
@@ -3070,22 +3181,22 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I44" s="5"/>
     </row>
@@ -3094,10 +3205,10 @@
         <v>807</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>27</v>
@@ -3106,13 +3217,13 @@
         <v>28</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="6"/>
@@ -3219,43 +3330,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>172</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>174</v>
       </c>
       <c r="I1" s="10"/>
     </row>
@@ -3264,25 +3375,25 @@
         <v>1001</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>178</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I2" s="10"/>
     </row>
@@ -3291,25 +3402,25 @@
         <v>1002</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>183</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>185</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I3" s="10"/>
     </row>
@@ -3318,27 +3429,79 @@
         <v>1003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I4" s="10"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="15">
+        <v>1800</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="12">
+        <v>1801</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="216">
   <si>
     <t>effect1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -764,10 +764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect1003_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,67 +780,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>effect503_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect503_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改成了三段！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1801_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1801_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_1801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_1801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1800_1(2、3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1800_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_1800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给蓝色品质boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1003_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_1802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_1802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>给紫色品质boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect503_1(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect503_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>改成了三段！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝焰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect1801_1(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect1801_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_1801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_1801</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect1800_1(2、3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect1800_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_1800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_1800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给蓝色品质boss</t>
+    <t>effect1702_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1702_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲击波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给金色品质boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,8 +1023,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="383">
+  <cellStyleXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1400,7 +1446,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="383">
+  <cellStyles count="401">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1592,6 +1638,15 @@
     <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1783,6 +1838,15 @@
     <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2114,7 +2178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
@@ -2829,10 +2893,10 @@
         <v>503</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>142</v>
@@ -2851,7 +2915,7 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3330,10 +3394,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3387,7 +3451,7 @@
         <v>182</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>4</v>
@@ -3429,10 +3493,10 @@
         <v>1003</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>185</v>
@@ -3441,7 +3505,7 @@
         <v>186</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>4</v>
@@ -3456,25 +3520,25 @@
         <v>1800</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="F12" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="G12" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="H12" s="15" t="s">
         <v>206</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3482,25 +3546,51 @@
         <v>1801</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>201</v>
-      </c>
       <c r="F13" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>193</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1">
+      <c r="A23" s="12">
+        <v>1702</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7140" yWindow="1840" windowWidth="28440" windowHeight="17400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4860" yWindow="1600" windowWidth="28440" windowHeight="17400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="214">
   <si>
     <t>effect1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -656,10 +656,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>修改成三段！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,10 +784,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>改成了三段！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蓝焰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -844,26 +836,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a_1802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_1802</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>给紫色品质boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>effect1702_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect1702_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>冲击波</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -873,6 +849,22 @@
   </si>
   <si>
     <t>给金色品质boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1700_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect1700_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_1700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_1700</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,7 +872,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -971,36 +963,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF00AE01"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00CA02"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="18"/>
       <color theme="5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00C802"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1426,7 +1390,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1441,10 +1405,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="401">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -2178,8 +2138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2224,7 +2184,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -2681,8 +2641,8 @@
       <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>164</v>
+      <c r="E20" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>33</v>
@@ -2706,8 +2666,8 @@
       <c r="D21" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>160</v>
+      <c r="E21" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>76</v>
@@ -2758,8 +2718,8 @@
       <c r="D23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>161</v>
+      <c r="E23" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>121</v>
@@ -2889,34 +2849,32 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="13">
+      <c r="A29" s="2">
         <v>503</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="2" t="s">
         <v>119</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="14" t="s">
-        <v>194</v>
-      </c>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="5"/>
@@ -3047,9 +3005,7 @@
       <c r="H35" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>159</v>
-      </c>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2">
@@ -3100,8 +3056,8 @@
       <c r="D38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>163</v>
+      <c r="E38" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>47</v>
@@ -3250,8 +3206,8 @@
       <c r="D44" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>162</v>
+      <c r="E44" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>131</v>
@@ -3394,10 +3350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3408,190 +3364,293 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="11" t="s">
-        <v>172</v>
-      </c>
       <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="11">
+      <c r="A2" s="2">
         <v>1001</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2">
+        <v>1800</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2">
+        <v>1801</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="11">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="11">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="D13" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="G13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="17" customHeight="1">
+      <c r="A23" s="1">
+        <v>1700</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="15">
-        <v>1800</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="12">
-        <v>1801</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1">
-      <c r="A23" s="12">
-        <v>1702</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="G23" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="H23" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>215</v>
-      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="1600" windowWidth="28440" windowHeight="17400" tabRatio="500"/>
+    <workbookView xWindow="1660" yWindow="1400" windowWidth="28440" windowHeight="17400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="216">
   <si>
     <t>effect1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -768,10 +768,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百拳重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单体技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -820,10 +816,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>单体技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -840,10 +832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冲击波</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>纵向技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -865,6 +853,26 @@
   </si>
   <si>
     <t>d_1700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神降天怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碧海袭卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万魁拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万魁修罗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金阳神</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -987,8 +995,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="401">
+  <cellStyleXfs count="413">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1406,7 +1426,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="401">
+  <cellStyles count="413">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1607,6 +1627,12 @@
     <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1807,6 +1833,12 @@
     <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2138,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -2853,10 +2885,10 @@
         <v>503</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>142</v>
@@ -3352,8 +3384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3407,7 +3439,7 @@
         <v>181</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -3452,7 +3484,7 @@
         <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>184</v>
@@ -3546,25 +3578,25 @@
         <v>1800</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3572,25 +3604,28 @@
         <v>1801</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="F13" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3619,27 +3654,29 @@
         <v>1700</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I23" s="1"/>
+        <v>206</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="217">
   <si>
     <t>effect1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -868,11 +868,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>万魁修罗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金阳神</t>
+    <t>金身冥王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤炎星君</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九阴罗刹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3385,7 +3389,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3598,6 +3602,9 @@
       <c r="H12" s="2" t="s">
         <v>202</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2">
@@ -3625,7 +3632,7 @@
         <v>204</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3675,7 +3682,7 @@
         <v>206</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="24" spans="1:9">

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="1400" windowWidth="28440" windowHeight="17400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7780" yWindow="320" windowWidth="28440" windowHeight="18460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="266">
   <si>
     <t>effect1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,6 +877,202 @@
   </si>
   <si>
     <t>九阴罗刹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_602_o(e)_1(2、3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_602</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降龙卷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给济公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect13_1 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect13_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给济公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect504_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect504_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_504</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电光爆裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前排群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给汉钟离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect14_1 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect14_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌光球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect808_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_808_1(2、3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_808</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流云锤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给牛魔王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect808_2(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_15_1(2、3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_15_o(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect809_1(2、3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect809_4(5、6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_809_1(2、3、4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_809_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给二郎神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万蛟枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect16_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect16_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛟刃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +1080,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -981,6 +1177,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF34DD00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3CD800"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2ED700"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -999,7 +1216,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="413">
+  <cellStyleXfs count="439">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1413,8 +1630,34 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1429,8 +1672,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="413">
+  <cellStyles count="439">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1637,6 +1883,19 @@
     <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1843,6 +2102,19 @@
     <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2172,17 +2444,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J53"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="22.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="37.6640625" customWidth="1"/>
@@ -2535,93 +2807,107 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="A14" s="13">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>229</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="2">
-        <v>300</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>24</v>
+      <c r="A15" s="13">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="2">
-        <v>301</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>26</v>
+      <c r="A16" s="13">
+        <v>15</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="2">
-        <v>302</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>116</v>
+      <c r="A17" s="13">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>259</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -2629,7 +2915,6 @@
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2638,739 +2923,916 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2">
-        <v>402</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>159</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="2">
-        <v>403</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="I23" s="2"/>
+      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>402</v>
+      </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2">
-        <v>500</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>60</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2">
-        <v>501</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>141</v>
+      </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
-        <v>502</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2">
+        <v>500</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2">
+        <v>501</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2">
+        <v>502</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:10" ht="21">
-      <c r="A29" s="2">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" ht="21">
+      <c r="A33" s="2">
         <v>503</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I29" s="2"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="5">
+      <c r="I33" s="2"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="21">
+      <c r="A34" s="13">
+        <v>504</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="5">
         <v>600</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" ht="21">
-      <c r="A32" s="5">
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:10" ht="21">
+      <c r="A37" s="5">
         <v>601</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="7"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="5">
+      <c r="I37" s="5"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" ht="21">
+      <c r="A38" s="12">
+        <v>602</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="5">
         <v>700</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G40" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" s="8" customFormat="1" ht="21">
-      <c r="A35" s="8">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" s="8" customFormat="1" ht="21">
+      <c r="A41" s="2">
         <v>701</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B41" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C41" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D41" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="2">
-        <v>702</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="5"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="2">
-        <v>800</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="2">
-        <v>801</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="5"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="2">
-        <v>802</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="2">
-        <v>803</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2">
-        <v>804</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="C42" s="2" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>88</v>
+        <v>127</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="2">
-        <v>805</v>
-      </c>
+      <c r="A43" s="2"/>
       <c r="B43" s="2"/>
-      <c r="C43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>130</v>
+        <v>64</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:10" ht="21">
+    <row r="45" spans="1:10">
       <c r="A45" s="2">
-        <v>807</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2">
+        <v>802</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2">
+        <v>803</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2">
+        <v>804</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2">
+        <v>805</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="2">
+        <v>806</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:10" ht="21">
+      <c r="A51" s="2">
+        <v>807</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="14">
+        <v>808</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="H52" s="14" t="s">
+        <v>247</v>
+      </c>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+    <row r="53" spans="1:10">
+      <c r="A53" s="14">
+        <v>809</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E53" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="H53" s="14" t="s">
+        <v>259</v>
+      </c>
       <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3388,8 +3850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3657,31 +4119,31 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="17" customHeight="1">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>1700</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>214</v>
       </c>
     </row>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="320" windowWidth="28440" windowHeight="18460" tabRatio="500"/>
+    <workbookView xWindow="12340" yWindow="260" windowWidth="28440" windowHeight="18460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="305">
   <si>
     <t>effect1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1068,11 +1068,167 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蛟刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect703_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect703_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飓风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纵向群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给铁扇公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect17_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect17_1 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半月刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_17_o(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_16_o(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect18_1 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect18_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_18_o(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招财进宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给财神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_810_1(2、3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召财烬宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单体技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给财神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect810</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect19_1 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect19_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜光珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给法海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect406_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect406_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_406</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法海无边</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机三位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1080,7 +1236,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1198,6 +1354,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF40DE00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF41D600"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1216,7 +1386,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="439">
+  <cellStyleXfs count="447">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1656,8 +1826,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1675,8 +1853,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="439">
+  <cellStyles count="447">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1896,6 +2076,10 @@
     <cellStyle name="超链接" xfId="433" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="435" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2115,6 +2299,10 @@
     <cellStyle name="访问过的超链接" xfId="434" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="436" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2444,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2898,10 +3086,10 @@
         <v>263</v>
       </c>
       <c r="E17" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>252</v>
@@ -2912,501 +3100,517 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="A18" s="13">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>271</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="2">
+      <c r="A19" s="13">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="13">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
         <v>300</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="2">
-        <v>301</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="2">
-        <v>302</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="2">
-        <v>402</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2">
-        <v>403</v>
-      </c>
-      <c r="B26" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="C26" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I26" s="2"/>
+      <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>141</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
-        <v>405</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>124</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2">
+        <v>403</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2">
-        <v>500</v>
+        <v>404</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2">
-        <v>501</v>
-      </c>
-      <c r="B31" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" s="16" customFormat="1">
+      <c r="A32" s="16">
+        <v>406</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2">
+        <v>500</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2">
+        <v>501</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="2">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2">
         <v>502</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" ht="21">
-      <c r="A33" s="2">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" ht="21">
+      <c r="A37" s="2">
         <v>503</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="11"/>
-    </row>
-    <row r="34" spans="1:10" ht="21">
-      <c r="A34" s="13">
+      <c r="I37" s="2"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" ht="21">
+      <c r="A38" s="13">
         <v>504</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B38" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D38" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F38" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="G34" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H38" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="11"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="5">
-        <v>600</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" ht="21">
-      <c r="A37" s="5">
-        <v>601</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="5"/>
-      <c r="J37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="12">
-        <v>602</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="I38" s="5"/>
-      <c r="J38" s="7"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="5"/>
@@ -3421,237 +3625,230 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="5">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>28</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:10" ht="21">
+      <c r="A41" s="5">
+        <v>601</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="5"/>
+      <c r="J41" s="7"/>
+    </row>
+    <row r="42" spans="1:10" ht="21">
+      <c r="A42" s="12">
+        <v>602</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="7"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="5">
+        <v>700</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" s="8" customFormat="1" ht="21">
-      <c r="A41" s="2">
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:10" s="8" customFormat="1" ht="21">
+      <c r="A45" s="2">
         <v>701</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="2">
-        <v>702</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I42" s="5"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="2">
-        <v>800</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="2">
-        <v>801</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I45" s="5"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2">
-        <v>802</v>
-      </c>
-      <c r="B46" s="2"/>
+        <v>702</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="2">
-        <v>803</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>19</v>
+      <c r="A47" s="15">
+        <v>703</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="2">
-        <v>804</v>
-      </c>
+      <c r="A48" s="2"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
       <c r="I48" s="5"/>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>48</v>
@@ -3663,176 +3860,314 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:10" ht="21">
+    <row r="51" spans="1:10">
       <c r="A51" s="2">
-        <v>807</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>48</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2">
+        <v>803</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="2">
+        <v>804</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="2">
+        <v>805</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="2">
+        <v>806</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I55" s="5"/>
+    </row>
+    <row r="56" spans="1:10" ht="21">
+      <c r="A56" s="2">
+        <v>807</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="14">
+      <c r="I56" s="2"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="14">
         <v>808</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B57" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="D52" s="14" t="s">
+      <c r="D57" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="E52" s="14" t="s">
+      <c r="E57" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F57" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G57" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="H52" s="14" t="s">
+      <c r="H57" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="14">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="14">
         <v>809</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B58" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="D53" s="14" t="s">
+      <c r="D58" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="E53" s="14" t="s">
+      <c r="E58" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F58" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G58" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="H53" s="14" t="s">
+      <c r="H58" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="A59" s="16">
+        <v>810</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="G59" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>290</v>
+      </c>
       <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12340" yWindow="260" windowWidth="28440" windowHeight="18460" tabRatio="500"/>
+    <workbookView xWindow="5600" yWindow="1940" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="217">
   <si>
     <t>effect1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,358 +877,6 @@
   </si>
   <si>
     <t>九阴罗刹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_602_o(e)_1(2、3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_602</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>降龙卷火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后排群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给济公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect13_1 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect13_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给济公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect504_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect504_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_504</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电光爆裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前排群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给汉钟离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect14_1 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect14_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌光球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect808_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_808_1(2、3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_808</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流云锤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给牛魔王</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect808_2(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_15_1(2、3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_15_o(e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect809_1(2、3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect809_4(5、6)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_809_1(2、3、4)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_809_1(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给二郎神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万蛟枪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect16_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect16_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛟刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect703_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect703_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_703</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_703</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>飓风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纵向群攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给铁扇公主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect17_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect17_1 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半月刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_17_o(e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_16_o(e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect18_1 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect18_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_18_o(e)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招财进宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普攻攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给财神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_810_1(2、3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召财烬宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单体技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给财神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect810</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect19_1 (2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect19_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜光珠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给法海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect406_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect406_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a_406</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_406</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法海无边</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机三位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1236,7 +884,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1335,34 +983,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF34DD00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3CD800"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF2ED700"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF40DE00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF41D600"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1835,7 +1455,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1851,10 +1471,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="447">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
@@ -2634,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2995,190 +2611,25 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="13">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="I14" s="2"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="13">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="I15" s="2"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="13">
-        <v>15</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="I16" s="2"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="13">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" s="2"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="13">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="I18" s="2"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="13">
-        <v>18</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="I19" s="2"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="13">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="I20" s="2"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2"/>
@@ -3442,32 +2893,7 @@
       <c r="I31" s="2"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" s="16" customFormat="1">
-      <c r="A32" s="16">
-        <v>406</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
+    <row r="32" spans="1:10" s="12" customFormat="1"/>
     <row r="33" spans="1:10">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
@@ -3585,32 +3011,8 @@
       <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" ht="21">
-      <c r="A38" s="13">
-        <v>504</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="J38" s="11"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="11"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="5"/>
@@ -3679,27 +3081,14 @@
       <c r="J41" s="7"/>
     </row>
     <row r="42" spans="1:10" ht="21">
-      <c r="A42" s="12">
-        <v>602</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>222</v>
-      </c>
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="7"/>
     </row>
@@ -3796,30 +3185,14 @@
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="15">
-        <v>703</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>271</v>
-      </c>
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="5"/>
     </row>
     <row r="48" spans="1:10">
@@ -4037,82 +3410,13 @@
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="14">
-        <v>808</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>242</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D57" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E57" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>246</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="I57" s="2"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="14">
-        <v>809</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="D58" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="E58" s="14" t="s">
-        <v>257</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>259</v>
-      </c>
-      <c r="I58" s="2"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="16">
-        <v>810</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="I59" s="2"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="1940" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="5640" yWindow="2760" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="1" r:id="rId1"/>
     <sheet name="boss" sheetId="2" r:id="rId2"/>
+    <sheet name="稀有卡" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="230">
   <si>
     <t>effect1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,6 +878,58 @@
   </si>
   <si>
     <t>九阴罗刹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2001_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2001_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半月刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁扇公主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2500_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2500_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_2500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴降诞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_2500_1（2、3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_2001_o(e)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,7 +937,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -988,6 +1041,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF47DD1A"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1006,7 +1066,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="447">
+  <cellStyleXfs count="449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1454,8 +1514,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1471,8 +1533,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="447">
+  <cellStyles count="449">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1696,6 +1759,7 @@
     <cellStyle name="超链接" xfId="441" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1919,6 +1983,7 @@
     <cellStyle name="访问过的超链接" xfId="442" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2250,8 +2315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3807,4 +3872,109 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="13">
+        <v>2001</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13">
+        <v>2500</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2760" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="5620" yWindow="2760" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="1" r:id="rId1"/>
@@ -917,10 +917,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>风暴降诞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>全体群攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -930,6 +926,10 @@
   </si>
   <si>
     <t>d_2001_o(e)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴风降诞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3879,7 +3879,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3930,7 +3930,7 @@
         <v>219</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>220</v>
@@ -3953,16 +3953,16 @@
         <v>224</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>225</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>222</v>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="2760" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19400" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="242">
   <si>
     <t>effect1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -929,7 +929,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暴风降诞</t>
+    <t>effect2002_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2002_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>济公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_2600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗刹风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降龙诀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后排群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_2600_o(e)_1(2、3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,7 +1091,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF47DD1A"/>
+      <color rgb="FF50D327"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1066,8 +1114,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="449">
+  <cellStyleXfs count="453">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1535,7 +1587,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="449">
+  <cellStyles count="453">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1760,6 +1812,8 @@
     <cellStyle name="超链接" xfId="443" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1984,6 +2038,8 @@
     <cellStyle name="访问过的超链接" xfId="444" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2315,7 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -3876,10 +3932,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3916,61 +3972,111 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="13">
+    <row r="2" spans="1:8" s="5" customFormat="1">
+      <c r="A2" s="5">
         <v>2001</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="5" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="13">
+    <row r="3" spans="1:8">
+      <c r="A3" s="13">
+        <v>2002</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1">
+      <c r="A11" s="5">
         <v>2500</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F11" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="F11" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="5" t="s">
         <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="13" customFormat="1">
+      <c r="A12" s="13">
+        <v>2600</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/client/doc/战斗技能配置.xlsx
+++ b/client/doc/战斗技能配置.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="255">
   <si>
     <t>effect1_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -978,6 +978,58 @@
   </si>
   <si>
     <t>a_2600_o(e)_1(2、3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2700_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_2700_o(e)_1(2、3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_2700_1(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字连斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字架群攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨戬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2003_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2003_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a_2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刃斩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect2700_3(4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -985,7 +1037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1096,6 +1148,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF56E40B"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1114,7 +1173,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="453">
+  <cellStyleXfs count="469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1568,8 +1627,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1586,8 +1661,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="453">
+  <cellStyles count="469">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -1814,6 +1890,14 @@
     <cellStyle name="超链接" xfId="447" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="449" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="467" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -2040,6 +2124,14 @@
     <cellStyle name="访问过的超链接" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="450" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="468" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2371,8 +2463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3932,7 +4024,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -4024,6 +4116,32 @@
         <v>235</v>
       </c>
     </row>
+    <row r="4" spans="1:8" s="14" customFormat="1">
+      <c r="A4" s="14">
+        <v>2003</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
     <row r="11" spans="1:8" s="5" customFormat="1">
       <c r="A11" s="5">
         <v>2500</v>
@@ -4071,6 +4189,32 @@
       </c>
       <c r="H12" s="13" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="14" customFormat="1">
+      <c r="A13" s="14">
+        <v>2700</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
